--- a/BacillusDaten/Stamm186/F7/offline_7.xlsx
+++ b/BacillusDaten/Stamm186/F7/offline_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\biomoni\BacillusDaten\offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\biomoni\BacillusDaten\Stamm186\F7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886822F1-0FA4-46F5-9BE6-38D31592D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E9E93-E1DD-4A60-8538-C3370A0653BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertunf" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Glucose [g/L]</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SampleVolume [g]</t>
+  </si>
+  <si>
+    <t>ts</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,6 +564,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -661,7 +665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$B$1</c:f>
+              <c:f>Auswertunf!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,7 +698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -763,7 +767,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$B$2:$B$25</c:f>
+              <c:f>Auswertunf!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -842,7 +846,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$C$1</c:f>
+              <c:f>Auswertunf!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -879,7 +883,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -948,7 +952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$C$2:$C$25</c:f>
+              <c:f>Auswertunf!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1027,7 +1031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$D$1</c:f>
+              <c:f>Auswertunf!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,7 +1067,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1132,7 +1136,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$D$2:$D$25</c:f>
+              <c:f>Auswertunf!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1447,7 +1451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$E$1</c:f>
+              <c:f>Auswertunf!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1467,7 +1471,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1536,7 +1540,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$E$2:$E$26</c:f>
+              <c:f>Auswertunf!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1603,7 +1607,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$F$1</c:f>
+              <c:f>Auswertunf!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1630,7 +1634,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1699,7 +1703,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$F$2:$F$26</c:f>
+              <c:f>Auswertunf!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1733,7 +1737,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$G$1</c:f>
+              <c:f>Auswertunf!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1769,7 +1773,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$26</c:f>
+              <c:f>Auswertunf!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1838,7 +1842,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$G$2:$G$26</c:f>
+              <c:f>Auswertunf!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2124,7 +2128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$H$1</c:f>
+              <c:f>Auswertunf!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2158,7 +2162,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Auswertunf!$I$2:$I$2</c:f>
+                <c:f>Auswertunf!$J$2:$J$2</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2170,7 +2174,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Auswertunf!$I$2:$I$2</c:f>
+                <c:f>Auswertunf!$J$2:$J$2</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2190,7 +2194,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$25</c:f>
+              <c:f>Auswertunf!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2259,7 +2263,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$H$2:$H$25</c:f>
+              <c:f>Auswertunf!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2352,7 +2356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$J$1</c:f>
+              <c:f>Auswertunf!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2384,7 +2388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$25</c:f>
+              <c:f>Auswertunf!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2453,7 +2457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$J$2:$J$24</c:f>
+              <c:f>Auswertunf!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2778,7 +2782,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auswertunf!$K$1</c:f>
+              <c:f>Auswertunf!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2817,7 +2821,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Auswertunf!$L$2:$L$3</c:f>
+                <c:f>Auswertunf!$M$2:$M$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -2832,7 +2836,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Auswertunf!$L$2:$L$3</c:f>
+                <c:f>Auswertunf!$M$2:$M$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -2881,7 +2885,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Auswertunf!$A$2:$A$25</c:f>
+              <c:f>Auswertunf!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2950,7 +2954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Auswertunf!$K$2:$K$27</c:f>
+              <c:f>Auswertunf!$L$2:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3872,13 +3876,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
@@ -3908,13 +3912,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>291352</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>189377</xdr:rowOff>
@@ -3944,13 +3948,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>179293</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>638735</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>20171</xdr:rowOff>
@@ -3982,13 +3986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>235324</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>336175</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>87406</xdr:rowOff>
@@ -4318,814 +4322,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44579.689583333333</v>
+      </c>
+      <c r="B2" s="1">
         <v>8.3333333430346102E-2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>29.461074050831506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.277397334004025</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>111400</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.15970000000000001</v>
       </c>
-      <c r="I2" t="e">
+      <c r="J2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5.8593930000000002E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9.6896551724137918</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.2588181014016953</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44580.327777777777</v>
+      </c>
+      <c r="B3" s="1">
         <v>15.416666666802485</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>27.774243175400066</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.1002818561540775</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.8076930206237414</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>94848</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.4413333333333331</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.0599352740640581E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.89572519999999989</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>78.022988505747136</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.85607108879841654</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.5400000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44580.379861111112</v>
+      </c>
+      <c r="B4" s="1">
         <v>16.650000000139698</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>26.506157201129593</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.1997842305145952</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.1231237047283695</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>103310</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.1136666666666661</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.0811957558969851E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.5093042999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>118.63218390804597</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.2586600529193439</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44580.426388888889</v>
+      </c>
+      <c r="B5" s="1">
         <v>17.766666666779201</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>23.815128647630999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.1718094950346072</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9.1284399522132791</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>107190</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.899</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.4751799659076546</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.1643431</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>168.33333333333329</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.0200151453922652</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.4200000000000017</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44580.486111111109</v>
+      </c>
+      <c r="B6" s="1">
         <v>19.216666666790843</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>22.4948970818952</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.7207264279265724</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.043379992454728</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37089</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>80348</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.9473333333333329</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.43704728958470118</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.9158765999999998</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>239.12643678160919</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.49771574930141627</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4.6399999999999988</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44580.53125</v>
+      </c>
+      <c r="B7" s="1">
         <v>20.316666666709352</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>22.123952306244121</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4.3631926439963884</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9.2166010563380283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>142390</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>144130</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11.49</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.39118409988137365</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4.215681</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>342.18390804597698</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4.3080453636575085</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4.5499999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44580.570833333331</v>
+      </c>
+      <c r="B8" s="1">
         <v>21.250000000116415</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>21.011117979290873</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.9290098170328021</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>8.9246504652917498</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>215000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>156060</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>13.945</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.50475241455588948</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.1164205000000003</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>431.37931034482762</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>13.725047621904428</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5.0900000000000016</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44580.618750000001</v>
+      </c>
+      <c r="B9" s="1">
         <v>22.400000000023283</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>19.632815186695954</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.5289509708095093</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8.9246504652917498</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>388410</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>158450</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15.270000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.27280945731407569</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5.6025630000000008</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>513.0459770114943</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.99543149860283253</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44580.657638888886</v>
+      </c>
+      <c r="B10" s="1">
         <v>23.333333333430346</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>18.447293065578915</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6.1138221432440565</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8.8993982897384303</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>555530</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>187040</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>17.825000000000003</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.34219877264537191</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.5399925000000012</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>638.21839080459768</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>15.863318291629954</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3.7200000000000024</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44581.325694444444</v>
+      </c>
+      <c r="B11" s="1">
         <v>39.383333333360497</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.7145335738939442</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.4865761907914532</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7.8995007419517096</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4229600</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>750560</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>44.153333333333329</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.60879662723550976</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16.199857999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2514.022988505747</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>49.17431603097836</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44581.374305555553</v>
+      </c>
+      <c r="B12" s="1">
         <v>40.549999999988358</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2.7419890178851585</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>9.0714358952753535</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>9.9232189512072431</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6013100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>973790</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>45.949999999999996</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.212837966537928</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>16.859054999999998</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2753.4482758620688</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>95.867650544526711</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3.16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44581.40347222222</v>
+      </c>
+      <c r="B13" s="1">
         <v>41.233333333453629</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1.7152739253216192</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6.7659019681011134</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7.8915263707243453</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4541500</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>706460</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>47.926666666666669</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.0800154319885114</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>17.584294</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2888.1609195402293</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>151.23641568239503</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3.7099999999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44581.443749999999</v>
+      </c>
+      <c r="B14" s="1">
         <v>42.216666666674428</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1.6210563225604018</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6.8878475642491725</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>8.0399382796780685</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4916700</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>753040</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>46.889999999999993</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.91847700025640255</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>17.203940999999997</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2857.7011494252874</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>104.25452101753737</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.2999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44581.479861111111</v>
+      </c>
+      <c r="B15" s="2">
         <v>43.083333333372138</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1.4131060244744276</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.8588335197111041</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>8.0115849597585509</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4990300</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>729600</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>48.473333333333336</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.0105609003584739</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17.784866000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3037.7011494252874</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>47.606608986394932</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.79000000000000092</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44581.537499999999</v>
+      </c>
+      <c r="B16" s="2">
         <v>44.450000000128057</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1.2216684970191403</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6.6035965368642788</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8.7757955357142841</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5220300</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>796140</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>50.666666666666664</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.337809154301663</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>18.589600000000001</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3140.2298850574712</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>152.14765863379171</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4.0899999999999981</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44581.572916666664</v>
+      </c>
+      <c r="B17" s="2">
         <v>45.316666666651145</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1.1172588013806088</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6.3933962798675896</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8.8147813506036208</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2655800</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>894590</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>51.553333333333335</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.9905359412312336</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>18.914918</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3199.9999999999995</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>84.214210758623864</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44581.604861111111</v>
+      </c>
+      <c r="B18" s="2">
         <v>46.066666666651145</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1.1921193285221212</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6.9257823448690932</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>10.226688078470826</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6628600</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1172900</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>48.856666666666662</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.71023470299143665</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>17.925511</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3404.1379310344823</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>106.06349476945908</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.09</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44581.661805555559</v>
+      </c>
+      <c r="B19" s="2">
         <v>47.400000000139698</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.97219924694069659</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6.3476666813120675</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9.0730623742454721</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5654600</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1037600</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>47.410000000000004</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.1589812412339286</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>17.394729000000002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3501.8390804597693</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>99.765082769433761</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3.51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44582.330555555556</v>
+      </c>
+      <c r="B20" s="2">
         <v>63.483333333337214</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5.17965651820644</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8.7483282570422531</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6028500</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1086700</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>43.906666666666666</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.59045180441195455</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>16.109356000000002</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3645.9770114942526</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>273.35962674304261</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.1799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44582.364583333336</v>
+      </c>
+      <c r="B21" s="2">
         <v>64.283333333325572</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5.2891304056575379</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>9.5727896378269612</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>6479500</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1118400</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>46.266666666666673</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.4268263150549632</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>16.975240000000003</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3919.0804597701149</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>98.672119055356447</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3.67</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
